--- a/names.xlsx
+++ b/names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howcam/Documents/GitHub/ClickToChooseARandomName/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98BF16AD-F568-1D41-8708-7875F7579561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B82096C-3FF2-1D47-BAF3-92D84A638487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16440" xr2:uid="{02F0C317-8C4F-8345-A33D-AC6EC6092CDB}"/>
   </bookViews>
@@ -35,154 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>姓名1</t>
+    <t>请编辑xlsx文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名2</t>
-  </si>
-  <si>
-    <t>姓名3</t>
-  </si>
-  <si>
-    <t>姓名4</t>
-  </si>
-  <si>
-    <t>姓名5</t>
-  </si>
-  <si>
-    <t>姓名6</t>
-  </si>
-  <si>
-    <t>姓名7</t>
-  </si>
-  <si>
-    <t>姓名8</t>
-  </si>
-  <si>
-    <t>姓名9</t>
-  </si>
-  <si>
-    <t>姓名10</t>
-  </si>
-  <si>
-    <t>姓名11</t>
-  </si>
-  <si>
-    <t>姓名12</t>
-  </si>
-  <si>
-    <t>姓名13</t>
-  </si>
-  <si>
-    <t>姓名14</t>
-  </si>
-  <si>
-    <t>姓名15</t>
-  </si>
-  <si>
-    <t>姓名16</t>
-  </si>
-  <si>
-    <t>姓名17</t>
-  </si>
-  <si>
-    <t>姓名18</t>
-  </si>
-  <si>
-    <t>姓名19</t>
-  </si>
-  <si>
-    <t>姓名20</t>
-  </si>
-  <si>
-    <t>姓名21</t>
-  </si>
-  <si>
-    <t>姓名22</t>
-  </si>
-  <si>
-    <t>姓名23</t>
-  </si>
-  <si>
-    <t>姓名24</t>
-  </si>
-  <si>
-    <t>姓名25</t>
-  </si>
-  <si>
-    <t>姓名26</t>
-  </si>
-  <si>
-    <t>姓名27</t>
-  </si>
-  <si>
-    <t>姓名28</t>
-  </si>
-  <si>
-    <t>姓名29</t>
-  </si>
-  <si>
-    <t>姓名30</t>
-  </si>
-  <si>
-    <t>姓名31</t>
-  </si>
-  <si>
-    <t>姓名32</t>
-  </si>
-  <si>
-    <t>姓名33</t>
-  </si>
-  <si>
-    <t>姓名34</t>
-  </si>
-  <si>
-    <t>姓名35</t>
-  </si>
-  <si>
-    <t>姓名36</t>
-  </si>
-  <si>
-    <t>姓名37</t>
-  </si>
-  <si>
-    <t>姓名38</t>
-  </si>
-  <si>
-    <t>姓名39</t>
-  </si>
-  <si>
-    <t>姓名40</t>
-  </si>
-  <si>
-    <t>姓名41</t>
-  </si>
-  <si>
-    <t>姓名42</t>
-  </si>
-  <si>
-    <t>姓名43</t>
-  </si>
-  <si>
-    <t>姓名44</t>
-  </si>
-  <si>
-    <t>姓名45</t>
-  </si>
-  <si>
-    <t>姓名46</t>
-  </si>
-  <si>
-    <t>姓名47</t>
-  </si>
-  <si>
-    <t>姓名48</t>
-  </si>
-  <si>
-    <t>姓名49</t>
   </si>
 </sst>
 </file>
@@ -546,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62D03C7-FB51-6847-967A-534C72463D17}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -559,246 +415,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
